--- a/src/assets/excel/dining_menu.xlsx
+++ b/src/assets/excel/dining_menu.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiragagarwal/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44E73C2-1441-F941-B747-05F65BB9C20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -28,15 +47,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
     <t>Breakfast</t>
   </si>
   <si>
@@ -89,13 +99,211 @@
   </si>
   <si>
     <t>Tiramisu for Dessert</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Short Meaning</t>
+  </si>
+  <si>
+    <t>Expanded Description</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Vegetarian</t>
+  </si>
+  <si>
+    <t>No meat, fish, or seafood. May include dairy and eggs.</t>
+  </si>
+  <si>
+    <t>VG</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>No animal products, including dairy, eggs, or honey.</t>
+  </si>
+  <si>
+    <t>VGO</t>
+  </si>
+  <si>
+    <t>Vegan Option</t>
+  </si>
+  <si>
+    <t>Can be made vegan upon request.</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>Gluten-Free</t>
+  </si>
+  <si>
+    <t>No gluten-containing grains (wheat, barley, rye, oats).</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Dairy-Free</t>
+  </si>
+  <si>
+    <t>No milk, cream, butter, cheese, or other dairy ingredients.</t>
+  </si>
+  <si>
+    <t>DFO</t>
+  </si>
+  <si>
+    <t>Dairy-Free Option</t>
+  </si>
+  <si>
+    <t>Dish can be made dairy-free upon request.</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>Nut-Free</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>Shellfish-Free</t>
+  </si>
+  <si>
+    <t>No crustaceans or molluscs. Important for shellfish allergies.</t>
+  </si>
+  <si>
+    <t>SF-C</t>
+  </si>
+  <si>
+    <t>Contains Shellfish</t>
+  </si>
+  <si>
+    <t>Includes crustaceans/molluscs like prawns, crabs, oysters.</t>
+  </si>
+  <si>
+    <t>CSF</t>
+  </si>
+  <si>
+    <t>Contains Seafood</t>
+  </si>
+  <si>
+    <t>Includes fish and seafood (prawns, crab, squid, fish fillets, etc.).</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>Egg-Free</t>
+  </si>
+  <si>
+    <t>No egg or egg products.</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>Halal-Friendly</t>
+  </si>
+  <si>
+    <t>Contains Halal-certified ingredients and prepared accordingly.</t>
+  </si>
+  <si>
+    <t>KF</t>
+  </si>
+  <si>
+    <t>Kosher-Friendly</t>
+  </si>
+  <si>
+    <t>Suitable for Kosher diet, but not officially certified.</t>
+  </si>
+  <si>
+    <t>SOYF</t>
+  </si>
+  <si>
+    <t>Soy-Free</t>
+  </si>
+  <si>
+    <t>Contains no soybeans or soy-derived ingredients.</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Contains Pork</t>
+  </si>
+  <si>
+    <t>Includes pork or pork-derived ingredients.</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Non-Vegetarian</t>
+  </si>
+  <si>
+    <t>Contains meat, poultry, fish, or seafood.</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Pescatarian</t>
+  </si>
+  <si>
+    <t>Contains fish/seafood but no meat or poultry.</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>When entering multiple dietary tags for a dish, please separate each tag with a comma and a space (e.g., V, GF)</t>
+  </si>
+  <si>
+    <t>Example:</t>
+  </si>
+  <si>
+    <t>V, GF</t>
+  </si>
+  <si>
+    <t>5:00 - 7:11</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Contains Nuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No tree nuts or peanuts. </t>
+  </si>
+  <si>
+    <t>No tree nuts or peanuts may be used</t>
+  </si>
+  <si>
+    <t>V, GF, CN</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>For a vegetarian, gluten-free pasta, enter: V, GF</t>
+  </si>
+  <si>
+    <t>Menu_Items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +315,32 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,24 +381,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +449,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -236,6 +483,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -270,9 +518,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -445,14 +694,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,214 +722,654 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>45850</v>
+      </c>
+      <c r="B2" s="6" t="str">
+        <f>TEXT(A2, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>45850</v>
+      </c>
+      <c r="B3" s="6" t="str">
+        <f t="shared" ref="B3:B24" si="0">TEXT(A3, "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>45850</v>
+      </c>
+      <c r="B4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="M4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>45850</v>
+      </c>
+      <c r="B5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>45850</v>
+      </c>
+      <c r="B6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="M6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>45850</v>
+      </c>
+      <c r="B7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>45850</v>
+      </c>
+      <c r="B8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="M8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>45850</v>
+      </c>
+      <c r="B9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="M9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>45850</v>
+      </c>
+      <c r="B10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="M10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>45850</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="M11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>45850</v>
+      </c>
+      <c r="B12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Saturday</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="M12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>45852</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F13" s="6"/>
+      <c r="M13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>45852</v>
+      </c>
+      <c r="B14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="M14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>45852</v>
+      </c>
+      <c r="B15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="M15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>45852</v>
+      </c>
+      <c r="B16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="F16" s="6"/>
+      <c r="M16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>45852</v>
+      </c>
+      <c r="B17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="M17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>45852</v>
+      </c>
+      <c r="B18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="M18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>45852</v>
+      </c>
+      <c r="B19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="M19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>45852</v>
+      </c>
+      <c r="B20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>45852</v>
+      </c>
+      <c r="B21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>45852</v>
+      </c>
+      <c r="B22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="M22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>45852</v>
+      </c>
+      <c r="B23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="M23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>45852</v>
+      </c>
+      <c r="B24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Monday</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>